--- a/promoteheader_test2.xlsx
+++ b/promoteheader_test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Github\PowerBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D4317F-FB21-435C-834E-4C2830626276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93460014-6C7B-44D0-980E-21B682B41366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30090" yWindow="5490" windowWidth="21600" windowHeight="11385" xr2:uid="{35EF2B0F-A1AB-4D28-BB6E-4BCC0930E56B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{35EF2B0F-A1AB-4D28-BB6E-4BCC0930E56B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,13 +65,13 @@
     <t>header</t>
   </si>
   <si>
-    <t xml:space="preserve">How </t>
-  </si>
-  <si>
     <t>about</t>
   </si>
   <si>
     <t>this</t>
+  </si>
+  <si>
+    <t>How</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,13 +490,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="2"/>
     </row>
